--- a/src/main/resources/template-segur-requirement-export-avec-colonnes-prepub.xlsx
+++ b/src/main/resources/template-segur-requirement-export-avec-colonnes-prepub.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrenier\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjuillard\Documents\segur\squash-convergence-plugin\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1722E7E5-C381-456F-B024-C835110BCA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43331D10-0821-49CD-8260-9DB857CC3773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exigences" sheetId="1" r:id="rId1"/>
@@ -80,9 +80,6 @@
     </r>
   </si>
   <si>
-    <t>Profil</t>
-  </si>
-  <si>
     <t>ID Section</t>
   </si>
   <si>
@@ -225,6 +222,9 @@
   </si>
   <si>
     <t>MSS/CDA.01.01.01</t>
+  </si>
+  <si>
+    <t>Profilyyyyyyyyyyyy</t>
   </si>
 </sst>
 </file>
@@ -752,46 +752,46 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.296875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="11.8984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.19921875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.59765625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="37.8984375" style="2" customWidth="1"/>
-    <col min="5" max="6" width="35.19921875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.09765625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.19921875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="66.3984375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="18.59765625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="66.3984375" style="6" customWidth="1"/>
-    <col min="12" max="12" width="18.59765625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="30.59765625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="18.59765625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="30.59765625" style="6" customWidth="1"/>
-    <col min="16" max="16" width="18.59765625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="30.59765625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="18.59765625" style="7" customWidth="1"/>
-    <col min="19" max="19" width="30.59765625" style="6" customWidth="1"/>
-    <col min="20" max="20" width="18.59765625" style="7" customWidth="1"/>
-    <col min="21" max="21" width="30.59765625" style="6" customWidth="1"/>
-    <col min="22" max="22" width="18.59765625" style="7" customWidth="1"/>
-    <col min="23" max="23" width="30.59765625" style="6" customWidth="1"/>
-    <col min="24" max="24" width="18.59765625" style="7" customWidth="1"/>
-    <col min="25" max="25" width="30.59765625" style="6" customWidth="1"/>
-    <col min="26" max="26" width="18.59765625" style="7" customWidth="1"/>
-    <col min="27" max="27" width="30.59765625" style="6" customWidth="1"/>
-    <col min="28" max="28" width="18.59765625" style="7" customWidth="1"/>
-    <col min="29" max="29" width="30.59765625" style="6" customWidth="1"/>
-    <col min="30" max="30" width="18.59765625" style="7" customWidth="1"/>
-    <col min="31" max="31" width="30.59765625" style="6" customWidth="1"/>
-    <col min="32" max="35" width="15.19921875" style="21" customWidth="1"/>
-    <col min="36" max="36" width="40.296875" style="21" customWidth="1"/>
-    <col min="37" max="37" width="52.296875" style="21" customWidth="1"/>
-    <col min="38" max="38" width="13.8984375" style="21" customWidth="1"/>
-    <col min="39" max="16384" width="9.296875" style="8"/>
+    <col min="1" max="1" width="11.9140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.58203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.9140625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="35.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.08203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="66.4140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="18.58203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="66.4140625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="30.58203125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="18.58203125" style="7" customWidth="1"/>
+    <col min="15" max="15" width="30.58203125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="18.58203125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="30.58203125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18.58203125" style="7" customWidth="1"/>
+    <col min="19" max="19" width="30.58203125" style="6" customWidth="1"/>
+    <col min="20" max="20" width="18.58203125" style="7" customWidth="1"/>
+    <col min="21" max="21" width="30.58203125" style="6" customWidth="1"/>
+    <col min="22" max="22" width="18.58203125" style="7" customWidth="1"/>
+    <col min="23" max="23" width="30.58203125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="18.58203125" style="7" customWidth="1"/>
+    <col min="25" max="25" width="30.58203125" style="6" customWidth="1"/>
+    <col min="26" max="26" width="18.58203125" style="7" customWidth="1"/>
+    <col min="27" max="27" width="30.58203125" style="6" customWidth="1"/>
+    <col min="28" max="28" width="18.58203125" style="7" customWidth="1"/>
+    <col min="29" max="29" width="30.58203125" style="6" customWidth="1"/>
+    <col min="30" max="30" width="18.58203125" style="7" customWidth="1"/>
+    <col min="31" max="31" width="30.58203125" style="6" customWidth="1"/>
+    <col min="32" max="35" width="15.1640625" style="21" customWidth="1"/>
+    <col min="36" max="36" width="40.33203125" style="21" customWidth="1"/>
+    <col min="37" max="37" width="52.33203125" style="21" customWidth="1"/>
+    <col min="38" max="38" width="13.9140625" style="21" customWidth="1"/>
+    <col min="39" max="16384" width="9.33203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="1" customFormat="1" ht="56.25" customHeight="1">
@@ -799,227 +799,227 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="U1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="X1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Y1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Z1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AA1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AB1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AC1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AD1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AE1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AF1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="23" t="s">
+      <c r="AG1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="23" t="s">
+      <c r="AH1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="23" t="s">
+      <c r="AI1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="23" t="s">
+      <c r="AJ1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="23" t="s">
+      <c r="AK1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="23" t="s">
+      <c r="AL1" s="23" t="s">
         <v>36</v>
-      </c>
-      <c r="AL1" s="23" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="68.25" customHeight="1">
       <c r="A2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="14" t="s">
+      <c r="H2" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="22" t="s">
-        <v>44</v>
-      </c>
       <c r="I2" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>49</v>
-      </c>
       <c r="M2" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R2" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T2" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U2" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V2" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X2" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y2" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z2" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA2" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB2" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC2" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD2" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE2" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF2" s="18"/>
       <c r="AG2" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH2" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI2" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AJ2" s="20"/>
       <c r="AK2" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL2" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
